--- a/TD11840_2023.xlsx
+++ b/TD11840_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My AMEP Workspace\Cadence Internship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FC9E65-EA59-4F2F-B384-101F0AB6285D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C2791E-CA5C-4F59-9A5B-AEABC2651848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="441">
   <si>
     <t>08/02/2023</t>
   </si>
@@ -1329,6 +1329,33 @@
   </si>
   <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t>338.75</t>
+  </si>
+  <si>
+    <t>-4.46535892843437+71.0425233947096i</t>
+  </si>
+  <si>
+    <t>52+45.25i</t>
+  </si>
+  <si>
+    <t>23.4653589284343+12.0425233947097i</t>
+  </si>
+  <si>
+    <t>45.25</t>
+  </si>
+  <si>
+    <t>23.4653589284343-12.0425233947096i</t>
+  </si>
+  <si>
+    <t>52-45.25i</t>
+  </si>
+  <si>
+    <t>-4.46535892843423-71.0425233947097i</t>
+  </si>
+  <si>
+    <t>FA</t>
   </si>
 </sst>
 </file>
@@ -1340,7 +1367,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="[$$-409]#,##0.00_);\([$$-409]#,##0.00\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1349,6 +1376,11 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1422,7 +1454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1454,18 +1486,19 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1481,6 +1514,941 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>FA</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sheet 1'!$M$56:$M$63</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet 1'!$O$56:$O$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>338.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71.18271953675</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68.931578394811183</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.37509126718582</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.375091267185773</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68.931578394811183</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>71.182719536750099</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-550C-4F83-8F15-9F2736D77F7A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1479208608"/>
+        <c:axId val="1844132304"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1479208608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1844132304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1844132304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1479208608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>274775</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>126364</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>599442</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>138610</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{023753CB-3E24-D01C-176C-BDA7C31950D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1782,8 +2750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B101" zoomScale="105" workbookViewId="0">
-      <selection activeCell="S117" sqref="S117"/>
+    <sheetView tabSelected="1" topLeftCell="B48" zoomScale="105" workbookViewId="0">
+      <selection activeCell="N54" sqref="N54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1797,6 +2765,7 @@
     <col min="10" max="10" width="8.21875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="36.6640625" customWidth="1"/>
     <col min="16" max="16" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1839,16 +2808,16 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="16" t="s">
         <v>416</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1877,10 +2846,10 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1907,8 +2876,8 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1941,8 +2910,8 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1975,8 +2944,8 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
@@ -2009,14 +2978,14 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="16" t="s">
         <v>33</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -2045,10 +3014,10 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
       <c r="E8" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,10 +3044,10 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
       <c r="E9" s="1" t="s">
         <v>32</v>
       </c>
@@ -2105,10 +3074,10 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11" t="s">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16" t="s">
         <v>61</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -2137,10 +3106,10 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="1" t="s">
         <v>39</v>
       </c>
@@ -2167,10 +3136,10 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="1" t="s">
         <v>42</v>
       </c>
@@ -2197,10 +3166,10 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="1" t="s">
         <v>45</v>
       </c>
@@ -2227,10 +3196,10 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="1" t="s">
         <v>48</v>
       </c>
@@ -2257,10 +3226,10 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="1" t="s">
         <v>51</v>
       </c>
@@ -2287,10 +3256,10 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="1" t="s">
         <v>54</v>
       </c>
@@ -2317,10 +3286,10 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
       <c r="E17" s="1" t="s">
         <v>57</v>
       </c>
@@ -2347,10 +3316,10 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
       <c r="E18" s="1" t="s">
         <v>60</v>
       </c>
@@ -2377,10 +3346,10 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11" t="s">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16" t="s">
         <v>89</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -2409,10 +3378,10 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
       <c r="E20" s="1" t="s">
         <v>67</v>
       </c>
@@ -2439,10 +3408,10 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
       <c r="E21" s="1" t="s">
         <v>70</v>
       </c>
@@ -2469,10 +3438,10 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
       <c r="E22" s="1" t="s">
         <v>73</v>
       </c>
@@ -2499,10 +3468,10 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
       <c r="E23" s="1" t="s">
         <v>76</v>
       </c>
@@ -2529,10 +3498,10 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
       <c r="E24" s="1" t="s">
         <v>79</v>
       </c>
@@ -2559,10 +3528,10 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
       <c r="E25" s="1" t="s">
         <v>82</v>
       </c>
@@ -2589,10 +3558,10 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
       <c r="E26" s="1" t="s">
         <v>85</v>
       </c>
@@ -2619,10 +3588,10 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
       <c r="E27" s="1" t="s">
         <v>88</v>
       </c>
@@ -2649,12 +3618,12 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11" t="s">
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="16" t="s">
         <v>124</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -2683,10 +3652,10 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
       <c r="E29" s="1" t="s">
         <v>96</v>
       </c>
@@ -2713,10 +3682,10 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
       <c r="E30" s="1" t="s">
         <v>99</v>
       </c>
@@ -2743,10 +3712,10 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
       <c r="E31" s="1" t="s">
         <v>102</v>
       </c>
@@ -2773,10 +3742,10 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
       <c r="E32" s="1" t="s">
         <v>105</v>
       </c>
@@ -2803,10 +3772,10 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
       <c r="E33" s="1" t="s">
         <v>108</v>
       </c>
@@ -2833,10 +3802,10 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
       <c r="E34" s="1" t="s">
         <v>111</v>
       </c>
@@ -2863,10 +3832,10 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
       <c r="E35" s="1" t="s">
         <v>114</v>
       </c>
@@ -2893,10 +3862,10 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
       <c r="E36" s="1" t="s">
         <v>117</v>
       </c>
@@ -2923,10 +3892,10 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
       <c r="E37" s="1" t="s">
         <v>120</v>
       </c>
@@ -2953,10 +3922,10 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
       <c r="E38" s="1" t="s">
         <v>123</v>
       </c>
@@ -2983,12 +3952,12 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11" t="s">
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="16" t="s">
         <v>168</v>
       </c>
       <c r="E39" s="1" t="s">
@@ -3017,10 +3986,10 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
       <c r="E40" s="1" t="s">
         <v>131</v>
       </c>
@@ -3047,10 +4016,10 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
       <c r="E41" s="1" t="s">
         <v>134</v>
       </c>
@@ -3077,10 +4046,10 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
       <c r="E42" s="1" t="s">
         <v>137</v>
       </c>
@@ -3107,10 +4076,10 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
       <c r="E43" s="1" t="s">
         <v>140</v>
       </c>
@@ -3137,10 +4106,10 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
       <c r="E44" s="1" t="s">
         <v>143</v>
       </c>
@@ -3167,10 +4136,10 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
       <c r="E45" s="1" t="s">
         <v>146</v>
       </c>
@@ -3197,10 +4166,10 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
       <c r="E46" s="1" t="s">
         <v>149</v>
       </c>
@@ -3227,10 +4196,10 @@
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
+      <c r="A47" s="16"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
       <c r="E47" s="1" t="s">
         <v>152</v>
       </c>
@@ -3257,10 +4226,10 @@
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
       <c r="E48" s="1" t="s">
         <v>155</v>
       </c>
@@ -3286,11 +4255,11 @@
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
       <c r="E49" s="1" t="s">
         <v>158</v>
       </c>
@@ -3316,11 +4285,11 @@
         <v>3.717472118959108E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A50" s="16"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
       <c r="E50" s="1" t="s">
         <v>161</v>
       </c>
@@ -3346,11 +4315,11 @@
         <v>3.3821871476888386E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
       <c r="E51" s="1" t="s">
         <v>164</v>
       </c>
@@ -3376,11 +4345,11 @@
         <v>0.10204081632653061</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A52" s="11"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A52" s="16"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
       <c r="E52" s="1" t="s">
         <v>167</v>
       </c>
@@ -3406,13 +4375,13 @@
         <v>4.9140049140049137E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11" t="s">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="D53" s="16" t="s">
         <v>176</v>
       </c>
       <c r="E53" s="1" t="s">
@@ -3440,11 +4409,11 @@
         <v>6.7114093959731544E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
       <c r="E54" s="1" t="s">
         <v>175</v>
       </c>
@@ -3470,9 +4439,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="11"/>
-      <c r="B55" s="11"/>
+    <row r="55" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
       <c r="C55" s="7" t="s">
         <v>181</v>
       </c>
@@ -3503,19 +4472,22 @@
       <c r="L55" s="10">
         <v>0.8</v>
       </c>
-      <c r="M55" s="12" t="s">
+      <c r="M55" s="11" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11" t="s">
+      <c r="N55" s="17" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A56" s="16"/>
+      <c r="B56" s="16" t="s">
         <v>414</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C56" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="D56" s="11" t="s">
+      <c r="D56" s="16" t="s">
         <v>192</v>
       </c>
       <c r="E56" s="1" t="s">
@@ -3542,15 +4514,22 @@
       <c r="L56" s="6">
         <v>0.13628899835796388</v>
       </c>
-      <c r="M56" s="13">
+      <c r="M56" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
+      <c r="N56" t="s">
+        <v>432</v>
+      </c>
+      <c r="O56">
+        <f>IMABS(N56)</f>
+        <v>338.75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A57" s="16"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
       <c r="E57" s="1" t="s">
         <v>188</v>
       </c>
@@ -3575,16 +4554,23 @@
       <c r="L57" s="6">
         <v>0</v>
       </c>
-      <c r="M57" s="14">
+      <c r="M57" s="13">
         <f>M56+1</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A58" s="11"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
+      <c r="N57" t="s">
+        <v>433</v>
+      </c>
+      <c r="O57">
+        <f t="shared" ref="O57:O63" si="0">IMABS(N57)</f>
+        <v>71.18271953675</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A58" s="16"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
       <c r="E58" s="1" t="s">
         <v>191</v>
       </c>
@@ -3609,16 +4595,23 @@
       <c r="L58" s="6">
         <v>0.19595959595959597</v>
       </c>
-      <c r="M58" s="14">
-        <f t="shared" ref="M58:M121" si="0">M57+1</f>
+      <c r="M58" s="13">
+        <f t="shared" ref="M58:M121" si="1">M57+1</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11" t="s">
+      <c r="N58" t="s">
+        <v>434</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="0"/>
+        <v>68.931578394811183</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A59" s="16"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16" t="s">
         <v>241</v>
       </c>
       <c r="E59" s="1" t="s">
@@ -3645,16 +4638,23 @@
       <c r="L59" s="6">
         <v>0</v>
       </c>
-      <c r="M59" s="14">
+      <c r="M59" s="13">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>435</v>
+      </c>
+      <c r="O59">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A60" s="11"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
+        <v>26.37509126718582</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A60" s="16"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
       <c r="E60" s="1" t="s">
         <v>198</v>
       </c>
@@ -3679,16 +4679,23 @@
       <c r="L60" s="6">
         <v>9.4567404426559351E-2</v>
       </c>
-      <c r="M60" s="14">
+      <c r="M60" s="13">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>436</v>
+      </c>
+      <c r="O60">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A61" s="11"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
+        <v>45.25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A61" s="16"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
       <c r="E61" s="1" t="s">
         <v>201</v>
       </c>
@@ -3713,16 +4720,23 @@
       <c r="L61" s="6">
         <v>0.15469613259668508</v>
       </c>
-      <c r="M61" s="14">
+      <c r="M61" s="13">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="N61" t="s">
+        <v>437</v>
+      </c>
+      <c r="O61">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A62" s="11"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
+        <v>26.375091267185773</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A62" s="16"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
       <c r="E62" s="1" t="s">
         <v>204</v>
       </c>
@@ -3747,16 +4761,23 @@
       <c r="L62" s="6">
         <v>0.16923076923076924</v>
       </c>
-      <c r="M62" s="14">
+      <c r="M62" s="13">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="N62" t="s">
+        <v>438</v>
+      </c>
+      <c r="O62">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
+        <v>68.931578394811183</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A63" s="16"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
       <c r="E63" s="1" t="s">
         <v>207</v>
       </c>
@@ -3781,16 +4802,23 @@
       <c r="L63" s="6">
         <v>0.30303030303030304</v>
       </c>
-      <c r="M63" s="14">
+      <c r="M63" s="13">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="N63" t="s">
+        <v>439</v>
+      </c>
+      <c r="O63">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A64" s="11"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
+        <v>71.182719536750099</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A64" s="16"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
       <c r="E64" s="1" t="s">
         <v>210</v>
       </c>
@@ -3815,16 +4843,16 @@
       <c r="L64" s="6">
         <v>0.14184397163120568</v>
       </c>
-      <c r="M64" s="14">
-        <f t="shared" si="0"/>
+      <c r="M64" s="13">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A65" s="11"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
+      <c r="A65" s="16"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
       <c r="E65" s="1" t="s">
         <v>213</v>
       </c>
@@ -3849,16 +4877,16 @@
       <c r="L65" s="6">
         <v>9.7643097643097643E-2</v>
       </c>
-      <c r="M65" s="14">
-        <f t="shared" si="0"/>
+      <c r="M65" s="13">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A66" s="11"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
+      <c r="A66" s="16"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
       <c r="E66" s="1" t="s">
         <v>216</v>
       </c>
@@ -3883,16 +4911,16 @@
       <c r="L66" s="6">
         <v>6.6390041493775934E-2</v>
       </c>
-      <c r="M66" s="14">
-        <f t="shared" si="0"/>
+      <c r="M66" s="13">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A67" s="11"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
+      <c r="A67" s="16"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
       <c r="E67" s="1" t="s">
         <v>219</v>
       </c>
@@ -3917,16 +4945,16 @@
       <c r="L67" s="6">
         <v>0.14124293785310735</v>
       </c>
-      <c r="M67" s="14">
-        <f t="shared" si="0"/>
+      <c r="M67" s="13">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A68" s="11"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
+      <c r="A68" s="16"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
       <c r="E68" s="1" t="s">
         <v>222</v>
       </c>
@@ -3951,16 +4979,16 @@
       <c r="L68" s="6">
         <v>0.22957198443579765</v>
       </c>
-      <c r="M68" s="14">
-        <f t="shared" si="0"/>
+      <c r="M68" s="13">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A69" s="11"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
+      <c r="A69" s="16"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
       <c r="E69" s="1" t="s">
         <v>225</v>
       </c>
@@ -3985,16 +5013,16 @@
       <c r="L69" s="6">
         <v>0.10411622276029056</v>
       </c>
-      <c r="M69" s="14">
-        <f t="shared" si="0"/>
+      <c r="M69" s="13">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A70" s="11"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
+      <c r="A70" s="16"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
       <c r="E70" s="1" t="s">
         <v>228</v>
       </c>
@@ -4019,16 +5047,16 @@
       <c r="L70" s="6">
         <v>0.14814814814814814</v>
       </c>
-      <c r="M70" s="14">
-        <f t="shared" si="0"/>
+      <c r="M70" s="13">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A71" s="11"/>
-      <c r="B71" s="11"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
+      <c r="A71" s="16"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
       <c r="E71" s="1" t="s">
         <v>231</v>
       </c>
@@ -4053,16 +5081,16 @@
       <c r="L71" s="6">
         <v>0.14519906323185011</v>
       </c>
-      <c r="M71" s="14">
-        <f t="shared" si="0"/>
+      <c r="M71" s="13">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A72" s="11"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
+      <c r="A72" s="16"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
       <c r="E72" s="1" t="s">
         <v>234</v>
       </c>
@@ -4087,16 +5115,16 @@
       <c r="L72" s="6">
         <v>5.2896725440806043E-2</v>
       </c>
-      <c r="M72" s="14">
-        <f t="shared" si="0"/>
+      <c r="M72" s="13">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A73" s="11"/>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
+      <c r="A73" s="16"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
       <c r="E73" s="1" t="s">
         <v>237</v>
       </c>
@@ -4121,16 +5149,16 @@
       <c r="L73" s="6">
         <v>0.13600000000000001</v>
       </c>
-      <c r="M73" s="14">
-        <f t="shared" si="0"/>
+      <c r="M73" s="13">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A74" s="11"/>
-      <c r="B74" s="11"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
+      <c r="A74" s="16"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
       <c r="E74" s="1" t="s">
         <v>240</v>
       </c>
@@ -4155,16 +5183,16 @@
       <c r="L74" s="6">
         <v>1.768172888015717E-2</v>
       </c>
-      <c r="M74" s="14">
-        <f t="shared" si="0"/>
+      <c r="M74" s="13">
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A75" s="11"/>
-      <c r="B75" s="11"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="11" t="s">
+      <c r="A75" s="16"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16" t="s">
         <v>275</v>
       </c>
       <c r="E75" s="1" t="s">
@@ -4191,16 +5219,16 @@
       <c r="L75" s="6">
         <v>0</v>
       </c>
-      <c r="M75" s="14">
-        <f t="shared" si="0"/>
+      <c r="M75" s="13">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A76" s="11"/>
-      <c r="B76" s="11"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
+      <c r="A76" s="16"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
       <c r="E76" s="1" t="s">
         <v>247</v>
       </c>
@@ -4225,16 +5253,16 @@
       <c r="L76" s="6">
         <v>0.55428571428571427</v>
       </c>
-      <c r="M76" s="14">
-        <f t="shared" si="0"/>
+      <c r="M76" s="13">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A77" s="11"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
+      <c r="A77" s="16"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
       <c r="E77" s="1" t="s">
         <v>250</v>
       </c>
@@ -4259,16 +5287,16 @@
       <c r="L77" s="6">
         <v>0.23706176961602671</v>
       </c>
-      <c r="M77" s="14">
-        <f t="shared" si="0"/>
+      <c r="M77" s="13">
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A78" s="11"/>
-      <c r="B78" s="11"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
+      <c r="A78" s="16"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
       <c r="E78" s="1" t="s">
         <v>253</v>
       </c>
@@ -4293,16 +5321,16 @@
       <c r="L78" s="6">
         <v>0.12718600953895071</v>
       </c>
-      <c r="M78" s="14">
-        <f t="shared" si="0"/>
+      <c r="M78" s="13">
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A79" s="11"/>
-      <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
+      <c r="A79" s="16"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
       <c r="E79" s="1" t="s">
         <v>256</v>
       </c>
@@ -4327,16 +5355,16 @@
       <c r="L79" s="6">
         <v>1</v>
       </c>
-      <c r="M79" s="14">
-        <f t="shared" si="0"/>
+      <c r="M79" s="13">
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A80" s="11"/>
-      <c r="B80" s="11"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
+      <c r="A80" s="16"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
       <c r="E80" s="1" t="s">
         <v>259</v>
       </c>
@@ -4361,16 +5389,16 @@
       <c r="L80" s="6">
         <v>1</v>
       </c>
-      <c r="M80" s="14">
-        <f t="shared" si="0"/>
+      <c r="M80" s="13">
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A81" s="11"/>
-      <c r="B81" s="11"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="11"/>
+      <c r="A81" s="16"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
       <c r="E81" s="1" t="s">
         <v>262</v>
       </c>
@@ -4395,16 +5423,16 @@
       <c r="L81" s="6">
         <v>8.8381330685203568E-2</v>
       </c>
-      <c r="M81" s="14">
-        <f t="shared" si="0"/>
+      <c r="M81" s="13">
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A82" s="11"/>
-      <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
+      <c r="A82" s="16"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
       <c r="E82" s="1" t="s">
         <v>265</v>
       </c>
@@ -4429,16 +5457,16 @@
       <c r="L82" s="6">
         <v>6.0648801128349791E-2</v>
       </c>
-      <c r="M82" s="14">
-        <f t="shared" si="0"/>
+      <c r="M82" s="13">
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A83" s="11"/>
-      <c r="B83" s="11"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
+      <c r="A83" s="16"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
       <c r="E83" s="1" t="s">
         <v>268</v>
       </c>
@@ -4463,16 +5491,16 @@
       <c r="L83" s="6">
         <v>7.0422535211267609E-2</v>
       </c>
-      <c r="M83" s="14">
-        <f t="shared" si="0"/>
+      <c r="M83" s="13">
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A84" s="11"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
+      <c r="A84" s="16"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
       <c r="E84" s="1" t="s">
         <v>271</v>
       </c>
@@ -4497,16 +5525,16 @@
       <c r="L84" s="6">
         <v>7.7210460772104611E-2</v>
       </c>
-      <c r="M84" s="14">
-        <f t="shared" si="0"/>
+      <c r="M84" s="13">
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A85" s="11"/>
-      <c r="B85" s="11"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="11"/>
+      <c r="A85" s="16"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="16"/>
       <c r="E85" s="1" t="s">
         <v>274</v>
       </c>
@@ -4531,18 +5559,18 @@
       <c r="L85" s="6">
         <v>8.9080459770114945E-2</v>
       </c>
-      <c r="M85" s="14">
-        <f t="shared" si="0"/>
+      <c r="M85" s="13">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A86" s="11"/>
-      <c r="B86" s="11"/>
-      <c r="C86" s="11" t="s">
+      <c r="A86" s="16"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="D86" s="11" t="s">
+      <c r="D86" s="16" t="s">
         <v>322</v>
       </c>
       <c r="E86" s="1" t="s">
@@ -4569,16 +5597,16 @@
       <c r="L86" s="6">
         <v>1</v>
       </c>
-      <c r="M86" s="14">
-        <f t="shared" si="0"/>
+      <c r="M86" s="13">
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A87" s="11"/>
-      <c r="B87" s="11"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
+      <c r="A87" s="16"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="16"/>
       <c r="E87" s="1" t="s">
         <v>282</v>
       </c>
@@ -4603,16 +5631,16 @@
       <c r="L87" s="6">
         <v>6.981132075471698E-2</v>
       </c>
-      <c r="M87" s="14">
-        <f t="shared" si="0"/>
+      <c r="M87" s="13">
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A88" s="11"/>
-      <c r="B88" s="11"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
+      <c r="A88" s="16"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="16"/>
       <c r="E88" s="1" t="s">
         <v>285</v>
       </c>
@@ -4637,16 +5665,16 @@
       <c r="L88" s="6">
         <v>0.26315789473684209</v>
       </c>
-      <c r="M88" s="14">
-        <f t="shared" si="0"/>
+      <c r="M88" s="13">
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A89" s="11"/>
-      <c r="B89" s="11"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
+      <c r="A89" s="16"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="16"/>
       <c r="E89" s="1" t="s">
         <v>288</v>
       </c>
@@ -4671,16 +5699,16 @@
       <c r="L89" s="6">
         <v>4.2735042735042736E-2</v>
       </c>
-      <c r="M89" s="14">
-        <f t="shared" si="0"/>
+      <c r="M89" s="13">
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A90" s="11"/>
-      <c r="B90" s="11"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
+      <c r="A90" s="16"/>
+      <c r="B90" s="16"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="16"/>
       <c r="E90" s="1" t="s">
         <v>291</v>
       </c>
@@ -4705,16 +5733,16 @@
       <c r="L90" s="6">
         <v>1.6393442622950821E-2</v>
       </c>
-      <c r="M90" s="14">
-        <f t="shared" si="0"/>
+      <c r="M90" s="13">
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A91" s="11"/>
-      <c r="B91" s="11"/>
-      <c r="C91" s="11"/>
-      <c r="D91" s="11"/>
+      <c r="A91" s="16"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="16"/>
       <c r="E91" s="1" t="s">
         <v>294</v>
       </c>
@@ -4739,16 +5767,16 @@
       <c r="L91" s="6">
         <v>4.7058823529411764E-2</v>
       </c>
-      <c r="M91" s="14">
-        <f t="shared" si="0"/>
+      <c r="M91" s="13">
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A92" s="11"/>
-      <c r="B92" s="11"/>
-      <c r="C92" s="11"/>
-      <c r="D92" s="11"/>
+      <c r="A92" s="16"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="16"/>
       <c r="E92" s="1" t="s">
         <v>297</v>
       </c>
@@ -4773,16 +5801,16 @@
       <c r="L92" s="6">
         <v>0.26363636363636361</v>
       </c>
-      <c r="M92" s="14">
-        <f t="shared" si="0"/>
+      <c r="M92" s="13">
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A93" s="11"/>
-      <c r="B93" s="11"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
+      <c r="A93" s="16"/>
+      <c r="B93" s="16"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="16"/>
       <c r="E93" s="1" t="s">
         <v>300</v>
       </c>
@@ -4807,16 +5835,16 @@
       <c r="L93" s="6">
         <v>4.5454545454545456E-2</v>
       </c>
-      <c r="M93" s="14">
-        <f t="shared" si="0"/>
+      <c r="M93" s="13">
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A94" s="11"/>
-      <c r="B94" s="11"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="11"/>
+      <c r="A94" s="16"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="16"/>
       <c r="E94" s="1" t="s">
         <v>303</v>
       </c>
@@ -4841,16 +5869,16 @@
       <c r="L94" s="6">
         <v>0.17241379310344829</v>
       </c>
-      <c r="M94" s="14">
-        <f t="shared" si="0"/>
+      <c r="M94" s="13">
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A95" s="11"/>
-      <c r="B95" s="11"/>
-      <c r="C95" s="11"/>
-      <c r="D95" s="11"/>
+      <c r="A95" s="16"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="16"/>
       <c r="E95" s="1" t="s">
         <v>306</v>
       </c>
@@ -4875,16 +5903,16 @@
       <c r="L95" s="6">
         <v>4.8913043478260872E-2</v>
       </c>
-      <c r="M95" s="14">
-        <f t="shared" si="0"/>
+      <c r="M95" s="13">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A96" s="11"/>
-      <c r="B96" s="11"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="11"/>
+      <c r="A96" s="16"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="16"/>
       <c r="E96" s="1" t="s">
         <v>309</v>
       </c>
@@ -4909,16 +5937,16 @@
       <c r="L96" s="6">
         <v>8.1818181818181818E-2</v>
       </c>
-      <c r="M96" s="14">
-        <f t="shared" si="0"/>
+      <c r="M96" s="13">
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A97" s="11"/>
-      <c r="B97" s="11"/>
-      <c r="C97" s="11"/>
-      <c r="D97" s="11"/>
+      <c r="A97" s="16"/>
+      <c r="B97" s="16"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="16"/>
       <c r="E97" s="1" t="s">
         <v>312</v>
       </c>
@@ -4943,16 +5971,16 @@
       <c r="L97" s="6">
         <v>3.1645569620253167E-2</v>
       </c>
-      <c r="M97" s="14">
-        <f t="shared" si="0"/>
+      <c r="M97" s="13">
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A98" s="11"/>
-      <c r="B98" s="11"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
+      <c r="A98" s="16"/>
+      <c r="B98" s="16"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="16"/>
       <c r="E98" s="1" t="s">
         <v>315</v>
       </c>
@@ -4977,16 +6005,16 @@
       <c r="L98" s="6">
         <v>5.8536585365853662E-2</v>
       </c>
-      <c r="M98" s="14">
-        <f t="shared" si="0"/>
+      <c r="M98" s="13">
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A99" s="11"/>
-      <c r="B99" s="11"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
+      <c r="A99" s="16"/>
+      <c r="B99" s="16"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="16"/>
       <c r="E99" s="1" t="s">
         <v>318</v>
       </c>
@@ -5011,16 +6039,16 @@
       <c r="L99" s="6">
         <v>0.17860962566844921</v>
       </c>
-      <c r="M99" s="14">
-        <f t="shared" si="0"/>
+      <c r="M99" s="13">
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A100" s="11"/>
-      <c r="B100" s="11"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="11"/>
+      <c r="A100" s="16"/>
+      <c r="B100" s="16"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="16"/>
       <c r="E100" s="1" t="s">
         <v>321</v>
       </c>
@@ -5045,16 +6073,16 @@
       <c r="L100" s="6">
         <v>6.8337129840546698E-3</v>
       </c>
-      <c r="M100" s="14">
-        <f t="shared" si="0"/>
+      <c r="M100" s="13">
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A101" s="11"/>
-      <c r="B101" s="11"/>
-      <c r="C101" s="11"/>
-      <c r="D101" s="11"/>
+      <c r="A101" s="16"/>
+      <c r="B101" s="16"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="16"/>
       <c r="E101" s="1" t="s">
         <v>325</v>
       </c>
@@ -5079,16 +6107,16 @@
       <c r="L101" s="6">
         <v>3.4313725490196081E-2</v>
       </c>
-      <c r="M101" s="14">
-        <f t="shared" si="0"/>
+      <c r="M101" s="13">
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A102" s="11"/>
-      <c r="B102" s="11"/>
-      <c r="C102" s="11"/>
-      <c r="D102" s="11" t="s">
+      <c r="A102" s="16"/>
+      <c r="B102" s="16"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="16" t="s">
         <v>332</v>
       </c>
       <c r="E102" s="1" t="s">
@@ -5115,16 +6143,16 @@
       <c r="L102" s="6">
         <v>5.9701492537313432E-2</v>
       </c>
-      <c r="M102" s="14">
-        <f t="shared" si="0"/>
+      <c r="M102" s="13">
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A103" s="11"/>
-      <c r="B103" s="11"/>
-      <c r="C103" s="11"/>
-      <c r="D103" s="11"/>
+      <c r="A103" s="16"/>
+      <c r="B103" s="16"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="16"/>
       <c r="E103" s="1" t="s">
         <v>331</v>
       </c>
@@ -5149,16 +6177,16 @@
       <c r="L103" s="6">
         <v>1</v>
       </c>
-      <c r="M103" s="14">
-        <f t="shared" si="0"/>
+      <c r="M103" s="13">
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A104" s="11"/>
-      <c r="B104" s="11"/>
-      <c r="C104" s="11"/>
-      <c r="D104" s="11"/>
+      <c r="A104" s="16"/>
+      <c r="B104" s="16"/>
+      <c r="C104" s="16"/>
+      <c r="D104" s="16"/>
       <c r="E104" s="1" t="s">
         <v>336</v>
       </c>
@@ -5183,18 +6211,18 @@
       <c r="L104" s="6">
         <v>2.4630541871921183E-2</v>
       </c>
-      <c r="M104" s="14">
-        <f t="shared" si="0"/>
+      <c r="M104" s="13">
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A105" s="11"/>
-      <c r="B105" s="11"/>
-      <c r="C105" s="11" t="s">
+      <c r="A105" s="16"/>
+      <c r="B105" s="16"/>
+      <c r="C105" s="16" t="s">
         <v>402</v>
       </c>
-      <c r="D105" s="11" t="s">
+      <c r="D105" s="16" t="s">
         <v>394</v>
       </c>
       <c r="E105" s="1" t="s">
@@ -5221,16 +6249,16 @@
       <c r="L105" s="6">
         <v>1.6194331983805668E-2</v>
       </c>
-      <c r="M105" s="14">
-        <f t="shared" si="0"/>
+      <c r="M105" s="13">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A106" s="11"/>
-      <c r="B106" s="11"/>
-      <c r="C106" s="11"/>
-      <c r="D106" s="11"/>
+      <c r="A106" s="16"/>
+      <c r="B106" s="16"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="16"/>
       <c r="E106" s="1" t="s">
         <v>342</v>
       </c>
@@ -5255,16 +6283,16 @@
       <c r="L106" s="6">
         <v>0.18944099378881987</v>
       </c>
-      <c r="M106" s="14">
-        <f t="shared" si="0"/>
+      <c r="M106" s="13">
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A107" s="11"/>
-      <c r="B107" s="11"/>
-      <c r="C107" s="11"/>
-      <c r="D107" s="11"/>
+      <c r="A107" s="16"/>
+      <c r="B107" s="16"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="16"/>
       <c r="E107" s="1" t="s">
         <v>345</v>
       </c>
@@ -5289,16 +6317,16 @@
       <c r="L107" s="6">
         <v>0.13253012048192772</v>
       </c>
-      <c r="M107" s="14">
-        <f t="shared" si="0"/>
+      <c r="M107" s="13">
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A108" s="11"/>
-      <c r="B108" s="11"/>
-      <c r="C108" s="11"/>
-      <c r="D108" s="11"/>
+      <c r="A108" s="16"/>
+      <c r="B108" s="16"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="16"/>
       <c r="E108" s="1" t="s">
         <v>348</v>
       </c>
@@ -5323,16 +6351,16 @@
       <c r="L108" s="6">
         <v>1</v>
       </c>
-      <c r="M108" s="14">
-        <f t="shared" si="0"/>
+      <c r="M108" s="13">
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A109" s="11"/>
-      <c r="B109" s="11"/>
-      <c r="C109" s="11"/>
-      <c r="D109" s="11"/>
+      <c r="A109" s="16"/>
+      <c r="B109" s="16"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="16"/>
       <c r="E109" s="1" t="s">
         <v>351</v>
       </c>
@@ -5357,16 +6385,16 @@
       <c r="L109" s="6">
         <v>0.12195121951219512</v>
       </c>
-      <c r="M109" s="14">
-        <f t="shared" si="0"/>
+      <c r="M109" s="13">
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A110" s="11"/>
-      <c r="B110" s="11"/>
-      <c r="C110" s="11"/>
-      <c r="D110" s="11"/>
+      <c r="A110" s="16"/>
+      <c r="B110" s="16"/>
+      <c r="C110" s="16"/>
+      <c r="D110" s="16"/>
       <c r="E110" s="1" t="s">
         <v>354</v>
       </c>
@@ -5391,17 +6419,17 @@
       <c r="L110" s="6">
         <v>8.9285714285714288E-2</v>
       </c>
-      <c r="M110" s="14">
-        <f t="shared" si="0"/>
+      <c r="M110" s="13">
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="P110" s="15"/>
+      <c r="P110" s="14"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A111" s="11"/>
-      <c r="B111" s="11"/>
-      <c r="C111" s="11"/>
-      <c r="D111" s="11"/>
+      <c r="A111" s="16"/>
+      <c r="B111" s="16"/>
+      <c r="C111" s="16"/>
+      <c r="D111" s="16"/>
       <c r="E111" s="1" t="s">
         <v>357</v>
       </c>
@@ -5426,17 +6454,17 @@
       <c r="L111" s="6">
         <v>0.13986013986013987</v>
       </c>
-      <c r="M111" s="14">
-        <f t="shared" si="0"/>
+      <c r="M111" s="13">
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="P111" s="15"/>
+      <c r="P111" s="14"/>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A112" s="11"/>
-      <c r="B112" s="11"/>
-      <c r="C112" s="11"/>
-      <c r="D112" s="11"/>
+      <c r="A112" s="16"/>
+      <c r="B112" s="16"/>
+      <c r="C112" s="16"/>
+      <c r="D112" s="16"/>
       <c r="E112" s="1" t="s">
         <v>360</v>
       </c>
@@ -5461,17 +6489,17 @@
       <c r="L112" s="6">
         <v>7.792207792207792E-2</v>
       </c>
-      <c r="M112" s="14">
-        <f t="shared" si="0"/>
+      <c r="M112" s="13">
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="P112" s="15"/>
+      <c r="P112" s="14"/>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A113" s="11"/>
-      <c r="B113" s="11"/>
-      <c r="C113" s="11"/>
-      <c r="D113" s="11"/>
+      <c r="A113" s="16"/>
+      <c r="B113" s="16"/>
+      <c r="C113" s="16"/>
+      <c r="D113" s="16"/>
       <c r="E113" s="1" t="s">
         <v>363</v>
       </c>
@@ -5496,17 +6524,17 @@
       <c r="L113" s="6">
         <v>1.3677811550151976E-2</v>
       </c>
-      <c r="M113" s="14">
-        <f t="shared" si="0"/>
+      <c r="M113" s="13">
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="P113" s="15"/>
+      <c r="P113" s="14"/>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A114" s="11"/>
-      <c r="B114" s="11"/>
-      <c r="C114" s="11"/>
-      <c r="D114" s="11"/>
+      <c r="A114" s="16"/>
+      <c r="B114" s="16"/>
+      <c r="C114" s="16"/>
+      <c r="D114" s="16"/>
       <c r="E114" s="1" t="s">
         <v>366</v>
       </c>
@@ -5531,16 +6559,16 @@
       <c r="L114" s="6">
         <v>2.6229508196721311E-2</v>
       </c>
-      <c r="M114" s="14">
-        <f t="shared" si="0"/>
+      <c r="M114" s="13">
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A115" s="11"/>
-      <c r="B115" s="11"/>
-      <c r="C115" s="11"/>
-      <c r="D115" s="11"/>
+      <c r="A115" s="16"/>
+      <c r="B115" s="16"/>
+      <c r="C115" s="16"/>
+      <c r="D115" s="16"/>
       <c r="E115" s="1" t="s">
         <v>369</v>
       </c>
@@ -5565,16 +6593,16 @@
       <c r="L115" s="6">
         <v>1.5410958904109588E-2</v>
       </c>
-      <c r="M115" s="14">
-        <f t="shared" si="0"/>
+      <c r="M115" s="13">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A116" s="11"/>
-      <c r="B116" s="11"/>
-      <c r="C116" s="11"/>
-      <c r="D116" s="11"/>
+      <c r="A116" s="16"/>
+      <c r="B116" s="16"/>
+      <c r="C116" s="16"/>
+      <c r="D116" s="16"/>
       <c r="E116" s="1" t="s">
         <v>372</v>
       </c>
@@ -5599,17 +6627,17 @@
       <c r="L116" s="6">
         <v>3.8277511961722487E-2</v>
       </c>
-      <c r="M116" s="14">
-        <f t="shared" si="0"/>
+      <c r="M116" s="13">
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="P116" s="16"/>
+      <c r="P116" s="15"/>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A117" s="11"/>
-      <c r="B117" s="11"/>
-      <c r="C117" s="11"/>
-      <c r="D117" s="11"/>
+      <c r="A117" s="16"/>
+      <c r="B117" s="16"/>
+      <c r="C117" s="16"/>
+      <c r="D117" s="16"/>
       <c r="E117" s="1" t="s">
         <v>375</v>
       </c>
@@ -5634,17 +6662,17 @@
       <c r="L117" s="6">
         <v>3.3854166666666664E-2</v>
       </c>
-      <c r="M117" s="14">
-        <f t="shared" si="0"/>
+      <c r="M117" s="13">
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="P117" s="14"/>
+      <c r="P117" s="13"/>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A118" s="11"/>
-      <c r="B118" s="11"/>
-      <c r="C118" s="11"/>
-      <c r="D118" s="11"/>
+      <c r="A118" s="16"/>
+      <c r="B118" s="16"/>
+      <c r="C118" s="16"/>
+      <c r="D118" s="16"/>
       <c r="E118" s="1" t="s">
         <v>378</v>
       </c>
@@ -5669,16 +6697,16 @@
       <c r="L118" s="6">
         <v>1.618705035971223E-2</v>
       </c>
-      <c r="M118" s="14">
-        <f t="shared" si="0"/>
+      <c r="M118" s="13">
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A119" s="11"/>
-      <c r="B119" s="11"/>
-      <c r="C119" s="11"/>
-      <c r="D119" s="11"/>
+      <c r="A119" s="16"/>
+      <c r="B119" s="16"/>
+      <c r="C119" s="16"/>
+      <c r="D119" s="16"/>
       <c r="E119" s="1" t="s">
         <v>381</v>
       </c>
@@ -5703,17 +6731,17 @@
       <c r="L119" s="6">
         <v>1.0113780025284451E-2</v>
       </c>
-      <c r="M119" s="14">
-        <f t="shared" si="0"/>
+      <c r="M119" s="13">
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="P119" s="15"/>
+      <c r="P119" s="14"/>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A120" s="11"/>
-      <c r="B120" s="11"/>
-      <c r="C120" s="11"/>
-      <c r="D120" s="11"/>
+      <c r="A120" s="16"/>
+      <c r="B120" s="16"/>
+      <c r="C120" s="16"/>
+      <c r="D120" s="16"/>
       <c r="E120" s="1" t="s">
         <v>384</v>
       </c>
@@ -5738,16 +6766,16 @@
       <c r="L120" s="6">
         <v>1.3289036544850499E-2</v>
       </c>
-      <c r="M120" s="14">
-        <f t="shared" si="0"/>
+      <c r="M120" s="13">
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A121" s="11"/>
-      <c r="B121" s="11"/>
-      <c r="C121" s="11"/>
-      <c r="D121" s="11"/>
+      <c r="A121" s="16"/>
+      <c r="B121" s="16"/>
+      <c r="C121" s="16"/>
+      <c r="D121" s="16"/>
       <c r="E121" s="1" t="s">
         <v>387</v>
       </c>
@@ -5772,17 +6800,17 @@
       <c r="L121" s="6">
         <v>0</v>
       </c>
-      <c r="M121" s="14">
-        <f t="shared" si="0"/>
+      <c r="M121" s="13">
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="P121" s="15"/>
+      <c r="P121" s="14"/>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A122" s="11"/>
-      <c r="B122" s="11"/>
-      <c r="C122" s="11"/>
-      <c r="D122" s="11"/>
+      <c r="A122" s="16"/>
+      <c r="B122" s="16"/>
+      <c r="C122" s="16"/>
+      <c r="D122" s="16"/>
       <c r="E122" s="1" t="s">
         <v>390</v>
       </c>
@@ -5807,16 +6835,16 @@
       <c r="L122" s="6">
         <v>1.4012738853503185E-2</v>
       </c>
-      <c r="M122" s="14">
-        <f t="shared" ref="M122:M128" si="1">M121+1</f>
+      <c r="M122" s="13">
+        <f t="shared" ref="M122:M128" si="2">M121+1</f>
         <v>67</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A123" s="11"/>
-      <c r="B123" s="11"/>
-      <c r="C123" s="11"/>
-      <c r="D123" s="11"/>
+      <c r="A123" s="16"/>
+      <c r="B123" s="16"/>
+      <c r="C123" s="16"/>
+      <c r="D123" s="16"/>
       <c r="E123" s="1" t="s">
         <v>393</v>
       </c>
@@ -5841,16 +6869,16 @@
       <c r="L123" s="6">
         <v>2.5477707006369428E-2</v>
       </c>
-      <c r="M123" s="14">
-        <f t="shared" si="1"/>
+      <c r="M123" s="13">
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A124" s="11"/>
-      <c r="B124" s="11"/>
-      <c r="C124" s="11"/>
-      <c r="D124" s="11"/>
+      <c r="A124" s="16"/>
+      <c r="B124" s="16"/>
+      <c r="C124" s="16"/>
+      <c r="D124" s="16"/>
       <c r="E124" s="1" t="s">
         <v>397</v>
       </c>
@@ -5875,16 +6903,16 @@
       <c r="L124" s="6">
         <v>1</v>
       </c>
-      <c r="M124" s="14">
-        <f t="shared" si="1"/>
+      <c r="M124" s="13">
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A125" s="11"/>
-      <c r="B125" s="11"/>
-      <c r="C125" s="11"/>
-      <c r="D125" s="11" t="s">
+      <c r="A125" s="16"/>
+      <c r="B125" s="16"/>
+      <c r="C125" s="16"/>
+      <c r="D125" s="16" t="s">
         <v>401</v>
       </c>
       <c r="E125" s="1" t="s">
@@ -5911,16 +6939,16 @@
       <c r="L125" s="6">
         <v>2.967359050445104E-2</v>
       </c>
-      <c r="M125" s="14">
-        <f t="shared" si="1"/>
+      <c r="M125" s="13">
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A126" s="11"/>
-      <c r="B126" s="11"/>
-      <c r="C126" s="11"/>
-      <c r="D126" s="11"/>
+      <c r="A126" s="16"/>
+      <c r="B126" s="16"/>
+      <c r="C126" s="16"/>
+      <c r="D126" s="16"/>
       <c r="E126" s="1" t="s">
         <v>405</v>
       </c>
@@ -5945,18 +6973,18 @@
       <c r="L126" s="6">
         <v>8.2063305978898014E-3</v>
       </c>
-      <c r="M126" s="14">
-        <f t="shared" si="1"/>
+      <c r="M126" s="13">
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A127" s="11"/>
-      <c r="B127" s="11"/>
-      <c r="C127" s="11" t="s">
+      <c r="A127" s="16"/>
+      <c r="B127" s="16"/>
+      <c r="C127" s="16" t="s">
         <v>413</v>
       </c>
-      <c r="D127" s="11" t="s">
+      <c r="D127" s="16" t="s">
         <v>412</v>
       </c>
       <c r="E127" s="1" t="s">
@@ -5983,16 +7011,16 @@
       <c r="L127" s="6">
         <v>1.8691588785046728E-2</v>
       </c>
-      <c r="M127" s="14">
-        <f t="shared" si="1"/>
+      <c r="M127" s="13">
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A128" s="11"/>
-      <c r="B128" s="11"/>
-      <c r="C128" s="11"/>
-      <c r="D128" s="11"/>
+      <c r="A128" s="16"/>
+      <c r="B128" s="16"/>
+      <c r="C128" s="16"/>
+      <c r="D128" s="16"/>
       <c r="E128" s="1" t="s">
         <v>411</v>
       </c>
@@ -6017,35 +7045,35 @@
       <c r="L128" s="6">
         <v>9.8314606741573031E-3</v>
       </c>
-      <c r="M128" s="14">
-        <f t="shared" si="1"/>
+      <c r="M128" s="13">
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A129" s="11"/>
-      <c r="B129" s="11"/>
-      <c r="C129" s="11"/>
-      <c r="D129" s="11"/>
+      <c r="A129" s="16"/>
+      <c r="B129" s="16"/>
+      <c r="C129" s="16"/>
+      <c r="D129" s="16"/>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A130" s="11"/>
-      <c r="B130" s="11" t="s">
+      <c r="A130" s="16"/>
+      <c r="B130" s="16" t="s">
         <v>415</v>
       </c>
-      <c r="C130" s="11" t="s">
+      <c r="C130" s="16" t="s">
         <v>415</v>
       </c>
-      <c r="D130" s="11" t="s">
+      <c r="D130" s="16" t="s">
         <v>415</v>
       </c>
-      <c r="E130" s="11" t="s">
+      <c r="E130" s="16" t="s">
         <v>415</v>
       </c>
-      <c r="F130" s="11" t="s">
+      <c r="F130" s="16" t="s">
         <v>415</v>
       </c>
-      <c r="G130" s="11" t="s">
+      <c r="G130" s="16" t="s">
         <v>415</v>
       </c>
       <c r="H130" s="4">
@@ -6065,25 +7093,25 @@
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A131" s="11" t="s">
+      <c r="A131" s="16" t="s">
         <v>418</v>
       </c>
-      <c r="B131" s="11" t="s">
+      <c r="B131" s="16" t="s">
         <v>417</v>
       </c>
-      <c r="C131" s="11" t="s">
+      <c r="C131" s="16" t="s">
         <v>417</v>
       </c>
-      <c r="D131" s="11" t="s">
+      <c r="D131" s="16" t="s">
         <v>417</v>
       </c>
-      <c r="E131" s="11" t="s">
+      <c r="E131" s="16" t="s">
         <v>417</v>
       </c>
-      <c r="F131" s="11" t="s">
+      <c r="F131" s="16" t="s">
         <v>417</v>
       </c>
-      <c r="G131" s="11" t="s">
+      <c r="G131" s="16" t="s">
         <v>417</v>
       </c>
       <c r="H131" s="4">
@@ -6104,20 +7132,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D10:D18"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="D59:D74"/>
-    <mergeCell ref="B56:B129"/>
-    <mergeCell ref="D19:D27"/>
-    <mergeCell ref="C7:C27"/>
-    <mergeCell ref="D28:D38"/>
-    <mergeCell ref="C28:C38"/>
-    <mergeCell ref="D39:D52"/>
-    <mergeCell ref="C39:C52"/>
     <mergeCell ref="B130:G130"/>
     <mergeCell ref="A2:A130"/>
     <mergeCell ref="A131:G131"/>
@@ -6134,7 +7148,23 @@
     <mergeCell ref="D53:D54"/>
     <mergeCell ref="C53:C54"/>
     <mergeCell ref="B7:B55"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="D59:D74"/>
+    <mergeCell ref="B56:B129"/>
+    <mergeCell ref="D19:D27"/>
+    <mergeCell ref="C7:C27"/>
+    <mergeCell ref="D28:D38"/>
+    <mergeCell ref="C28:C38"/>
+    <mergeCell ref="D39:D52"/>
+    <mergeCell ref="C39:C52"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D10:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>